--- a/src/test/resources/TestData/Test.xlsx
+++ b/src/test/resources/TestData/Test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E2AE18CB-3AFF-43ED-BB69-68481A0D8B04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C3B4D2EC-DEA8-4CD3-8FEA-BBC6098A3E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LocateUsingNameAttributePage" sheetId="1" r:id="rId1"/>
@@ -21,36 +21,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>tempore</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Field1</t>
   </si>
   <si>
-    <t>quia</t>
-  </si>
-  <si>
-    <t>muna</t>
-  </si>
-  <si>
-    <t>3684484641</t>
-  </si>
-  <si>
-    <t>2735196569</t>
-  </si>
-  <si>
-    <t>TqKp@$bRKA</t>
-  </si>
-  <si>
-    <t>AO@$GJZRqb</t>
-  </si>
-  <si>
-    <t>!T%ePUlDfL</t>
-  </si>
-  <si>
-    <t>BfjpF!m#ko</t>
+    <t>yvuuvxuzzy</t>
+  </si>
+  <si>
+    <t>V%SoGYXLgN</t>
+  </si>
+  <si>
+    <t>vvytsvxzzw</t>
+  </si>
+  <si>
+    <t>konKJHLAmM</t>
+  </si>
+  <si>
+    <t>UXZHX%p!Tg</t>
+  </si>
+  <si>
+    <t>4574014942</t>
+  </si>
+  <si>
+    <t>J%oGDYSrTl</t>
+  </si>
+  <si>
+    <t>lRPE)Pi(dB</t>
+  </si>
+  <si>
+    <t>QP#pKQkq!#</t>
+  </si>
+  <si>
+    <t>szszwzsttz</t>
+  </si>
+  <si>
+    <t>JMeBhndWLJ</t>
+  </si>
+  <si>
+    <t>yzzzxwztxs</t>
+  </si>
+  <si>
+    <t>ytxytwuuzs</t>
+  </si>
+  <si>
+    <t>uuztwxxzzw</t>
+  </si>
+  <si>
+    <t>swzwvwyztu</t>
+  </si>
+  <si>
+    <t>0136794854</t>
+  </si>
+  <si>
+    <t>vyzttytxvz</t>
+  </si>
+  <si>
+    <t>vwztsvtswz</t>
   </si>
 </sst>
 </file>
@@ -372,7 +399,7 @@
   <dimension ref="A1:A174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A5:A23"/>
+      <selection activeCell="A11" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,12 +409,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -430,15 +457,51 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25"/>
